--- a/Dang-Vu-Duc/mon/temps-1.2/Test_copy.xlsx
+++ b/Dang-Vu-Duc/mon/temps-1.2/Test_copy.xlsx
@@ -48,13 +48,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -63,7 +69,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,6 +491,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fraises</t>
+        </is>
+      </c>
       <c r="B4" t="n">
         <v>23</v>
       </c>
@@ -501,9 +512,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A4"/>
-  </mergeCells>
   <pageMargins left="0.7000000000000001" right="0.7000000000000001" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>

--- a/Dang-Vu-Duc/mon/temps-1.2/Test_copy.xlsx
+++ b/Dang-Vu-Duc/mon/temps-1.2/Test_copy.xlsx
@@ -491,11 +491,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fraises</t>
-        </is>
-      </c>
       <c r="B4" t="n">
         <v>23</v>
       </c>
@@ -512,6 +507,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
   <pageMargins left="0.7000000000000001" right="0.7000000000000001" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
